--- a/SprintBurntdownChart.xlsx
+++ b/SprintBurntdownChart.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\TKPPL-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF72C1A8-9934-458E-8B57-E40365A48BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Buat akun Github &amp; Trello</t>
   </si>
@@ -93,12 +94,15 @@
   </si>
   <si>
     <t>Materi Pendahuluan</t>
+  </si>
+  <si>
+    <t>6 Des</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +133,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -175,18 +185,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,6 +255,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,11 +548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,237 +561,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C17">
@@ -741,6 +814,149 @@
       </c>
       <c r="I17">
         <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -749,5 +965,43 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{1112E1CE-F4FF-4A6D-8B27-159B246B4D40}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!G25</xm:f>
+              <xm:sqref>D21</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{CA21E8E4-73F8-40AE-B91F-7D672F4548DE}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!$D$23</xm:f>
+              <xm:sqref>C27</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>